--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nirav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCEC052-B76F-4B55-8D4B-23BC0BE61C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" tabRatio="549" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,10 +23,20 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="197">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,12 +183,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -652,19 +657,22 @@
     <t>02-28-2022</t>
   </si>
   <si>
-    <t>Leaving leftover pizza on the counter or plate</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Functionally independent coding</t>
+  </si>
+  <si>
+    <t>Changing unowned code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1187,7 +1195,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1219,7 +1233,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1288,7 +1308,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1347,7 +1373,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1410,7 +1442,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="6" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1474,7 +1512,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="7" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1537,7 +1581,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1601,7 +1651,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1938,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -1972,50 +2028,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>182</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2023,18 +2079,18 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2042,10 +2098,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2080,16 +2136,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2097,16 +2153,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2119,16 +2175,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2136,16 +2192,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2156,10 +2212,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -2175,37 +2231,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2228,7 +2284,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2244,7 +2300,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2269,7 +2325,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2294,7 +2350,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2319,7 +2375,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2350,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2389,7 +2445,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -2400,7 +2456,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -2429,11 +2485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2490,16 +2546,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -2519,16 +2575,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -2548,16 +2604,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -2577,16 +2633,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -2618,14 +2674,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2633,9 +2684,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2646,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2692,7 +2743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2737,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2782,10 +2833,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2797,475 +2848,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aasha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCEC052-B76F-4B55-8D4B-23BC0BE61C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22276CE-FB1C-43D7-8E44-4C6820B905CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="199">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -297,9 +295,6 @@
     <t>Divorce before death</t>
   </si>
   <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
     <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
   </si>
   <si>
@@ -667,6 +662,15 @@
   </si>
   <si>
     <t>Changing unowned code</t>
+  </si>
+  <si>
+    <t>aanjaria1213</t>
+  </si>
+  <si>
+    <t>Less than 150 years old</t>
+  </si>
+  <si>
+    <t>Coding</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2002,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2028,50 +2032,53 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="D3" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>177</v>
-      </c>
       <c r="D5" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2079,7 +2086,7 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2099,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2136,16 +2143,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2175,16 +2182,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2192,16 +2199,50 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2231,37 +2272,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2284,7 +2325,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2300,7 +2341,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2325,7 +2366,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2350,7 +2391,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2375,7 +2416,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2445,7 +2486,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -2456,7 +2497,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -2486,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2546,16 +2587,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -2575,16 +2616,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -2604,16 +2645,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -2633,16 +2674,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -2660,33 +2701,75 @@
         <v>43151</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>30</v>
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2784,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2836,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2848,7 +2931,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>66</v>
@@ -2859,10 +2942,10 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>35</v>
@@ -2870,7 +2953,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -2881,7 +2964,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -2892,7 +2975,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -2903,7 +2986,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -2914,7 +2997,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -2925,54 +3008,54 @@
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>41</v>
@@ -2980,32 +3063,32 @@
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>42</v>
@@ -3013,10 +3096,10 @@
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>43</v>
@@ -3024,10 +3107,10 @@
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>44</v>
@@ -3035,10 +3118,10 @@
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>45</v>
@@ -3046,10 +3129,10 @@
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>46</v>
@@ -3057,10 +3140,10 @@
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>47</v>
@@ -3068,10 +3151,10 @@
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>48</v>
@@ -3079,43 +3162,43 @@
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>50</v>
@@ -3123,10 +3206,10 @@
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>51</v>
@@ -3134,21 +3217,21 @@
     </row>
     <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>52</v>
@@ -3156,21 +3239,21 @@
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>53</v>
@@ -3178,10 +3261,10 @@
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>54</v>
@@ -3189,10 +3272,10 @@
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>55</v>
@@ -3200,10 +3283,10 @@
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>56</v>
@@ -3211,10 +3294,10 @@
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>57</v>
@@ -3222,10 +3305,10 @@
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>58</v>
@@ -3233,10 +3316,10 @@
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>59</v>
@@ -3244,10 +3327,10 @@
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>60</v>
@@ -3255,10 +3338,10 @@
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>61</v>
@@ -3266,10 +3349,10 @@
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>62</v>
@@ -3277,10 +3360,10 @@
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>63</v>
@@ -3288,21 +3371,21 @@
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>64</v>
@@ -3310,10 +3393,10 @@
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>65</v>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aasha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22276CE-FB1C-43D7-8E44-4C6820B905CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="549" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -676,7 +675,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1998,19 +1997,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2090,14 +2089,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2105,20 +2104,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2233,10 +2232,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
         <v>175</v>
@@ -2253,21 +2252,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2447,21 +2446,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2526,23 +2525,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="6"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2712,7 +2711,7 @@
         <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -2723,16 +2722,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -2757,7 +2756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>194</v>
       </c>
@@ -2780,16 +2779,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2826,16 +2825,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2871,16 +2870,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2916,17 +2915,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2940,7 +2939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -3072,7 +3071,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3281,7 +3280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D5DA3-A845-40A1-A9A2-9E92131BB058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="549" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,20 +31,19 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="200">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -670,12 +670,15 @@
   </si>
   <si>
     <t>Coding</t>
+  </si>
+  <si>
+    <t>SK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -814,7 +817,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -843,6 +846,7 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="65"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1997,19 +2001,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2089,14 +2093,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2104,20 +2108,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="42.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2241,6 +2245,40 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2252,21 +2290,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2446,21 +2484,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2506,14 +2544,14 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>983</v>
       </c>
       <c r="E3">
         <v>120</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>491.5</v>
       </c>
     </row>
   </sheetData>
@@ -2525,23 +2563,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2756,7 +2794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>194</v>
       </c>
@@ -2779,16 +2817,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2815,6 +2853,46 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="18">
+        <v>50</v>
+      </c>
+      <c r="F2" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="18">
+        <v>80</v>
+      </c>
+      <c r="F3" s="18">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2825,16 +2903,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2870,16 +2948,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2915,17 +2993,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2939,7 +3017,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2950,7 +3028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -2961,7 +3039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -2972,7 +3050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -2983,7 +3061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -2994,7 +3072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -3005,7 +3083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -3016,7 +3094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -3027,7 +3105,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3038,7 +3116,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -3049,7 +3127,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -3060,7 +3138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -3071,7 +3149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3082,7 +3160,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3093,7 +3171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3104,7 +3182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3115,7 +3193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -3126,7 +3204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -3137,7 +3215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3148,7 +3226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3159,7 +3237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3170,7 +3248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3181,7 +3259,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3192,7 +3270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3203,7 +3281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3214,7 +3292,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3225,7 +3303,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3236,7 +3314,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3247,7 +3325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -3258,7 +3336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3269,7 +3347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3280,7 +3358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3291,7 +3369,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3302,7 +3380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3313,7 +3391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3324,7 +3402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3335,7 +3413,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3346,7 +3424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3357,7 +3435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -3368,7 +3446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3379,7 +3457,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -3390,7 +3468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D5DA3-A845-40A1-A9A2-9E92131BB058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -673,12 +672,15 @@
   </si>
   <si>
     <t>SK</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2001,19 +2003,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2093,14 +2095,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2108,20 +2110,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2228,7 +2230,7 @@
         <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2245,7 +2247,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2279,6 +2281,40 @@
         <v>199</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2290,21 +2326,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2484,21 +2520,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2563,23 +2599,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2794,7 +2830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>194</v>
       </c>
@@ -2817,16 +2853,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2855,7 +2891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>113</v>
       </c>
@@ -2875,7 +2911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>116</v>
       </c>
@@ -2893,6 +2929,46 @@
       </c>
       <c r="F3" s="18">
         <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2903,16 +2979,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2948,16 +3024,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2993,17 +3069,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3017,7 +3093,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3028,7 +3104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -3039,7 +3115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -3050,7 +3126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3061,7 +3137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -3072,7 +3148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -3083,7 +3159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -3094,7 +3170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -3105,7 +3181,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3116,7 +3192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -3127,7 +3203,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -3138,7 +3214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -3149,7 +3225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3160,7 +3236,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3171,7 +3247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3182,7 +3258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3193,7 +3269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -3204,7 +3280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -3215,7 +3291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3226,7 +3302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3237,7 +3313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3248,7 +3324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3259,7 +3335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3270,7 +3346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3281,7 +3357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3292,7 +3368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3303,7 +3379,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3314,7 +3390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3325,7 +3401,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -3336,7 +3412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3347,7 +3423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3358,7 +3434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3369,7 +3445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3380,7 +3456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3391,7 +3467,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3402,7 +3478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3413,7 +3489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3424,7 +3500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3435,7 +3511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -3446,7 +3522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3457,7 +3533,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -3468,7 +3544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SSW-555\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="200">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -647,15 +647,9 @@
     <t>02-21-2022</t>
   </si>
   <si>
-    <t>02-28-2022</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Functionally independent coding</t>
   </si>
   <si>
@@ -675,6 +669,9 @@
   </si>
   <si>
     <t>AA</t>
+  </si>
+  <si>
+    <t>NP</t>
   </si>
 </sst>
 </file>
@@ -1093,24 +1090,24 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:f>Burndown!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>02-21-2022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>02-28-2022</c:v>
+                  <c:v>7-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
                 </c:pt>
@@ -1649,13 +1646,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>948267</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>160867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>397934</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2010,12 +2007,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2083,7 +2080,7 @@
         <v>183</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2111,19 +2108,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="42.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2154,10 +2151,10 @@
         <v>69</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2174,7 +2171,7 @@
         <v>177</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2196,7 +2193,7 @@
         <v>189</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2213,7 +2210,7 @@
         <v>189</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2224,13 +2221,13 @@
         <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
         <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2247,7 +2244,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2261,10 +2258,10 @@
         <v>155</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2278,10 +2275,10 @@
         <v>70</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2295,10 +2292,10 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2312,10 +2309,44 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2333,14 +2364,14 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2524,17 +2555,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2569,25 +2600,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>191</v>
+      <c r="A3" s="2">
+        <v>43283</v>
       </c>
       <c r="B3">
         <v>18</v>
       </c>
       <c r="C3">
-        <f>B2-B3</f>
         <v>6</v>
-      </c>
-      <c r="D3">
-        <v>983</v>
-      </c>
-      <c r="E3">
-        <v>120</v>
-      </c>
-      <c r="F3" s="9">
-        <f>(D3-D2)/E3*60</f>
-        <v>491.5</v>
       </c>
     </row>
   </sheetData>
@@ -2606,16 +2626,16 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2669,7 +2689,7 @@
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -2698,7 +2718,7 @@
         <v>177</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -2727,7 +2747,7 @@
         <v>189</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -2756,7 +2776,7 @@
         <v>189</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -2779,13 +2799,13 @@
         <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
         <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -2805,7 +2825,7 @@
         <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -2830,9 +2850,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -2842,7 +2862,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2854,15 +2874,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>113</v>
       </c>
@@ -2899,10 +2919,10 @@
         <v>155</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E2" s="18">
         <v>50</v>
@@ -2911,7 +2931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>116</v>
       </c>
@@ -2919,10 +2939,10 @@
         <v>70</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E3" s="18">
         <v>80</v>
@@ -2939,10 +2959,10 @@
         <v>84</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E5">
         <v>80</v>
@@ -2959,16 +2979,56 @@
         <v>83</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6">
         <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="18">
+        <v>80</v>
+      </c>
+      <c r="F8" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="18">
+        <v>80</v>
+      </c>
+      <c r="F9" s="18">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2986,9 +3046,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3031,9 +3091,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3073,13 +3133,13 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3093,7 +3153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3104,7 +3164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -3115,7 +3175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -3126,7 +3186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3137,7 +3197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -3148,7 +3208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -3159,18 +3219,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -3181,7 +3241,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3192,7 +3252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -3203,7 +3263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -3214,7 +3274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -3225,7 +3285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3236,7 +3296,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3247,7 +3307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3258,7 +3318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3269,7 +3329,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -3280,7 +3340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -3291,7 +3351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3302,7 +3362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3313,7 +3373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3324,7 +3384,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3335,7 +3395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3346,7 +3406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3357,7 +3417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3368,7 +3428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3379,7 +3439,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3390,7 +3450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3401,7 +3461,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -3412,7 +3472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3423,7 +3483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3434,7 +3494,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3445,7 +3505,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3456,7 +3516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3467,7 +3527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3478,7 +3538,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3489,7 +3549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3500,7 +3560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3511,7 +3571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -3522,7 +3582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3533,7 +3593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -3544,7 +3604,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2554,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2623,7 +2623,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2813,6 +2813,15 @@
       <c r="F9">
         <v>60</v>
       </c>
+      <c r="G9" s="18">
+        <v>120</v>
+      </c>
+      <c r="H9" s="18">
+        <v>90</v>
+      </c>
+      <c r="I9" s="7">
+        <v>43151</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2832,6 +2841,15 @@
       </c>
       <c r="F10">
         <v>120</v>
+      </c>
+      <c r="G10" s="18">
+        <v>100</v>
+      </c>
+      <c r="H10" s="18">
+        <v>70</v>
+      </c>
+      <c r="I10" s="7">
+        <v>43151</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2876,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3002,13 +3020,22 @@
         <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E8" s="18">
         <v>80</v>
       </c>
       <c r="F8" s="18">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>45</v>
+      </c>
+      <c r="I8" s="13">
+        <v>43184</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3022,13 +3049,22 @@
         <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E9" s="18">
         <v>80</v>
       </c>
       <c r="F9" s="18">
         <v>120</v>
+      </c>
+      <c r="G9" s="18">
+        <v>90</v>
+      </c>
+      <c r="H9" s="18">
+        <v>60</v>
+      </c>
+      <c r="I9" s="13">
+        <v>43184</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3169,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SSW-555\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76068362-4E1B-4B17-8AB1-201B15D0AFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -677,7 +678,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2000,7 +2001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2092,14 +2093,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2107,11 +2108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2261,7 +2262,7 @@
         <v>197</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2278,7 +2279,7 @@
         <v>197</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2329,7 +2330,7 @@
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2346,7 +2347,7 @@
         <v>199</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2357,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2551,11 +2552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2619,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2891,14 +2892,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -2940,13 +2944,22 @@
         <v>197</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E2" s="18">
         <v>50</v>
       </c>
       <c r="F2" s="18">
         <v>60</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2" s="13">
+        <v>43184</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2960,13 +2973,22 @@
         <v>197</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E3" s="18">
         <v>80</v>
       </c>
       <c r="F3" s="18">
         <v>120</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3" s="13">
+        <v>43184</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3075,7 +3097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -3120,7 +3142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -3165,11 +3187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3442,7 +3464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Stevens\555\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76068362-4E1B-4B17-8AB1-201B15D0AFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -678,7 +677,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -726,7 +725,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,6 +735,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +822,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -847,6 +852,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1098,7 +1104,7 @@
                   <c:v>02-21-2022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-3</c:v>
+                  <c:v>7/3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2001,19 +2007,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2093,14 +2099,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2108,20 +2114,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2358,21 +2364,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2552,21 +2558,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2620,23 +2626,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2869,7 +2875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>192</v>
       </c>
@@ -2892,16 +2898,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3002,13 +3008,22 @@
         <v>198</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E5">
         <v>80</v>
       </c>
       <c r="F5">
         <v>100</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" s="13">
+        <v>43186</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3022,13 +3037,22 @@
         <v>198</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6">
         <v>100</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6" s="13">
+        <v>43186</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3097,16 +3121,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3142,16 +3166,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3187,17 +3211,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3211,8 +3235,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B2" t="s">
@@ -3222,8 +3246,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B3" t="s">
@@ -3233,8 +3257,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B4" t="s">
@@ -3244,8 +3268,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B5" t="s">
@@ -3255,8 +3279,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>117</v>
       </c>
       <c r="B6" t="s">
@@ -3266,8 +3290,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
       <c r="B7" t="s">
@@ -3277,8 +3301,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
       <c r="B8" t="s">
@@ -3288,8 +3312,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>120</v>
       </c>
       <c r="B9" t="s">
@@ -3299,8 +3323,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B10" t="s">
@@ -3310,8 +3334,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B11" t="s">
@@ -3321,7 +3345,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -3332,7 +3356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -3343,7 +3367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3354,7 +3378,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3365,7 +3389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3376,7 +3400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3387,7 +3411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -3398,7 +3422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -3409,7 +3433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3420,7 +3444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3431,7 +3455,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3442,7 +3466,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3453,7 +3477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3464,7 +3488,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3475,7 +3499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3486,7 +3510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3497,7 +3521,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3508,7 +3532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3519,7 +3543,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -3530,7 +3554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3541,7 +3565,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3552,7 +3576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3563,7 +3587,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3574,7 +3598,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3585,7 +3609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3596,7 +3620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3607,7 +3631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3618,7 +3642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3629,7 +3653,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -3640,7 +3664,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3651,7 +3675,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -3662,7 +3686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Stevens\555\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37A9E6F-B844-4FCD-8B0A-327FB2E03810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="201">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -672,12 +673,15 @@
   </si>
   <si>
     <t>NP</t>
+  </si>
+  <si>
+    <t>Changing main parser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -725,7 +729,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +745,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +832,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -853,6 +863,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1104,7 +1115,7 @@
                   <c:v>02-21-2022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7/3</c:v>
+                  <c:v>7-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2007,19 +2018,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2099,14 +2110,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2114,20 +2125,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="42.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2364,21 +2375,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2558,21 +2569,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2626,23 +2637,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2875,7 +2886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>192</v>
       </c>
@@ -2898,19 +2909,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2939,7 +2950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>113</v>
       </c>
@@ -2968,7 +2979,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>116</v>
       </c>
@@ -2997,7 +3008,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>130</v>
       </c>
@@ -3026,7 +3037,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>129</v>
       </c>
@@ -3055,7 +3066,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -3084,7 +3095,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3111,6 +3122,40 @@
       </c>
       <c r="I9" s="13">
         <v>43184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3121,16 +3166,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3157,6 +3206,46 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3166,16 +3255,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3211,17 +3300,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3235,7 +3324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>113</v>
       </c>
@@ -3246,7 +3335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3257,7 +3346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
@@ -3268,7 +3357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
@@ -3279,7 +3368,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>117</v>
       </c>
@@ -3290,7 +3379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3301,7 +3390,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
@@ -3312,7 +3401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>120</v>
       </c>
@@ -3323,7 +3412,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
@@ -3334,7 +3423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
@@ -3345,8 +3434,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B12" t="s">
@@ -3356,8 +3445,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B13" t="s">
@@ -3367,7 +3456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3378,7 +3467,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3389,7 +3478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3400,7 +3489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3411,8 +3500,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B18" t="s">
@@ -3422,8 +3511,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B19" t="s">
@@ -3433,7 +3522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3444,7 +3533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3455,7 +3544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3466,7 +3555,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3477,7 +3566,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3488,7 +3577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3499,7 +3588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3510,7 +3599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3521,7 +3610,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3532,7 +3621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3543,7 +3632,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -3554,7 +3643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3565,7 +3654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3576,7 +3665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3587,7 +3676,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3598,7 +3687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3609,7 +3698,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3620,7 +3709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3631,7 +3720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3642,7 +3731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3653,7 +3742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -3664,7 +3753,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3675,7 +3764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -3686,7 +3775,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37A9E6F-B844-4FCD-8B0A-327FB2E03810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="549" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="201">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -681,7 +680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1115,7 +1114,7 @@
                   <c:v>02-21-2022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7-3</c:v>
+                  <c:v>7/3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2018,19 +2017,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2110,14 +2109,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2125,20 +2124,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2375,21 +2374,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2569,21 +2568,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2637,23 +2636,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2886,7 +2885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>192</v>
       </c>
@@ -2909,19 +2908,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>113</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>116</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>130</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>129</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>192</v>
       </c>
@@ -3166,17 +3165,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3246,6 +3245,46 @@
       </c>
       <c r="F3">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3255,16 +3294,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3300,17 +3339,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3324,7 +3363,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>113</v>
       </c>
@@ -3335,7 +3374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3346,7 +3385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
@@ -3357,7 +3396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
@@ -3368,7 +3407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>117</v>
       </c>
@@ -3379,7 +3418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3390,7 +3429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
@@ -3401,7 +3440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>120</v>
       </c>
@@ -3412,7 +3451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
@@ -3423,7 +3462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
@@ -3434,7 +3473,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>123</v>
       </c>
@@ -3445,7 +3484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -3456,7 +3495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3467,7 +3506,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3478,7 +3517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3489,7 +3528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3500,7 +3539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>129</v>
       </c>
@@ -3511,7 +3550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
@@ -3522,7 +3561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3533,7 +3572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3544,7 +3583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3555,7 +3594,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3566,7 +3605,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3577,7 +3616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3588,7 +3627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3599,7 +3638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3610,7 +3649,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3621,7 +3660,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3632,7 +3671,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -3643,7 +3682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3654,7 +3693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3665,7 +3704,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3676,7 +3715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3687,7 +3726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3698,7 +3737,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3709,7 +3748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3720,7 +3759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3731,7 +3770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3742,7 +3781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -3753,7 +3792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3764,7 +3803,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -3775,7 +3814,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SSW-555\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="549" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8052" tabRatio="549" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="201">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -831,7 +831,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -863,6 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1114,7 +1115,7 @@
                   <c:v>02-21-2022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7/3</c:v>
+                  <c:v>7-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2024,12 +2025,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2131,13 +2132,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="42.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2381,14 +2382,14 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2575,14 +2576,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2643,16 +2644,16 @@
       <selection activeCell="B12" sqref="B12:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2885,7 +2886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>192</v>
       </c>
@@ -2915,9 +2916,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3136,7 +3137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>192</v>
       </c>
@@ -3166,16 +3167,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3285,6 +3286,46 @@
       </c>
       <c r="F6">
         <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>29</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="18">
+        <v>50</v>
+      </c>
+      <c r="F8" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="18">
+        <v>20</v>
+      </c>
+      <c r="F9" s="18">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3301,9 +3342,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3342,14 +3383,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3363,7 +3404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>113</v>
       </c>
@@ -3374,7 +3415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3385,7 +3426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
@@ -3396,7 +3437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
@@ -3407,7 +3448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>117</v>
       </c>
@@ -3418,7 +3459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3429,7 +3470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
@@ -3440,7 +3481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>120</v>
       </c>
@@ -3451,7 +3492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
@@ -3462,7 +3503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
@@ -3473,7 +3514,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>123</v>
       </c>
@@ -3484,7 +3525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -3495,7 +3536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3506,7 +3547,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3517,7 +3558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3528,7 +3569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3539,7 +3580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>129</v>
       </c>
@@ -3550,7 +3591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
@@ -3561,7 +3602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3572,7 +3613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3583,7 +3624,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3594,7 +3635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3605,7 +3646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3616,7 +3657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3627,7 +3668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3638,7 +3679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3649,7 +3690,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3660,7 +3701,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3671,8 +3712,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B30" t="s">
@@ -3682,8 +3723,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B31" t="s">
@@ -3693,7 +3734,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3704,7 +3745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3715,7 +3756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3726,7 +3767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3737,7 +3778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3748,7 +3789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3759,7 +3800,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3770,7 +3811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3781,7 +3822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -3792,7 +3833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -3803,7 +3844,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -3814,7 +3855,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>
@@ -3827,6 +3868,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8052" tabRatio="549" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8052" tabRatio="549" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2640,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3383,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3657,7 +3657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SSW-555\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B669A239-523C-4896-AC7A-7490D00F6916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8052" tabRatio="549" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="201">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -629,9 +630,6 @@
     <t>npate94@stevens.edu</t>
   </si>
   <si>
-    <t>skapuria@gmail.com</t>
-  </si>
-  <si>
     <t>https://github.com/zeroand1/SSW-555-Project</t>
   </si>
   <si>
@@ -644,9 +642,6 @@
     <t>sk</t>
   </si>
   <si>
-    <t>02-21-2022</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
@@ -675,12 +670,18 @@
   </si>
   <si>
     <t>Changing main parser</t>
+  </si>
+  <si>
+    <t>03-28-2022</t>
+  </si>
+  <si>
+    <t>skapuria@stevens.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1110,12 +1111,12 @@
             <c:strRef>
               <c:f>Burndown!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>02-21-2022</c:v>
-                </c:pt>
+                <c:ptCount val="3"/>
                 <c:pt idx="1">
                   <c:v>7-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>03-28-2022</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1131,6 +1132,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,11 +2022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2061,10 +2065,10 @@
         <v>182</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2081,7 +2085,7 @@
         <v>184</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2098,7 +2102,7 @@
         <v>183</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2106,18 +2110,18 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2125,11 +2129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2172,7 +2176,7 @@
         <v>177</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2189,7 +2193,7 @@
         <v>177</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2208,10 +2212,10 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2225,10 +2229,10 @@
         <v>156</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2239,13 +2243,13 @@
         <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
         <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2262,7 +2266,7 @@
         <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2276,10 +2280,10 @@
         <v>155</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2293,10 +2297,10 @@
         <v>70</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2310,10 +2314,10 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2327,10 +2331,10 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2344,10 +2348,10 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2361,10 +2365,124 @@
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2375,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
@@ -2569,11 +2687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2607,9 +2725,6 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="B2">
         <v>24</v>
       </c>
@@ -2626,6 +2741,49 @@
       </c>
       <c r="C3">
         <v>6</v>
+      </c>
+      <c r="D3">
+        <v>984</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3" s="9">
+        <f>D3-D2/(E3*60)</f>
+        <v>984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1500</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F6" si="0">D4-D3/(E4*60)</f>
+        <v>1499.836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2637,10 +2795,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2707,7 +2865,7 @@
         <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E3">
         <v>150</v>
@@ -2736,7 +2894,7 @@
         <v>177</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -2762,10 +2920,10 @@
         <v>71</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -2791,10 +2949,10 @@
         <v>156</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -2817,13 +2975,13 @@
         <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -2852,7 +3010,7 @@
         <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E10">
         <v>200</v>
@@ -2888,7 +3046,7 @@
     </row>
     <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -2898,7 +3056,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2909,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2958,10 +3116,10 @@
         <v>155</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E2" s="18">
         <v>50</v>
@@ -2987,10 +3145,10 @@
         <v>70</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E3" s="18">
         <v>80</v>
@@ -3016,10 +3174,10 @@
         <v>84</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5">
         <v>80</v>
@@ -3045,10 +3203,10 @@
         <v>83</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -3074,10 +3232,10 @@
         <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" s="18">
         <v>80</v>
@@ -3103,10 +3261,10 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E9" s="18">
         <v>80</v>
@@ -3139,7 +3297,7 @@
     </row>
     <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3155,7 +3313,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3166,11 +3324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3216,10 +3374,10 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -3236,10 +3394,10 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -3256,10 +3414,10 @@
         <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3276,10 +3434,10 @@
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -3296,10 +3454,10 @@
         <v>97</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="18">
         <v>50</v>
@@ -3316,10 +3474,10 @@
         <v>98</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E9" s="18">
         <v>20</v>
@@ -3335,7 +3493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -3380,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -3475,7 +3633,7 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>73</v>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B669A239-523C-4896-AC7A-7490D00F6916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -681,7 +680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1113,7 +1112,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>7-3</c:v>
+                  <c:v>7/3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>03-28-2022</c:v>
@@ -2022,19 +2021,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2114,14 +2113,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2129,20 +2128,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2493,21 +2492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2687,21 +2686,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2795,23 +2794,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3044,7 +3043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
@@ -3067,16 +3066,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3295,7 +3294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>190</v>
       </c>
@@ -3324,17 +3323,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3425,6 +3424,15 @@
       <c r="F5">
         <v>60</v>
       </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" s="13">
+        <v>43195</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3444,6 +3452,15 @@
       </c>
       <c r="F6">
         <v>60</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="13">
+        <v>43195</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3493,16 +3510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3538,17 +3555,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3562,7 +3579,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>113</v>
       </c>
@@ -3573,7 +3590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3584,7 +3601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
@@ -3595,7 +3612,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
@@ -3606,7 +3623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>117</v>
       </c>
@@ -3617,7 +3634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3628,7 +3645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
@@ -3639,7 +3656,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>120</v>
       </c>
@@ -3650,7 +3667,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
@@ -3661,7 +3678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
@@ -3672,7 +3689,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>123</v>
       </c>
@@ -3683,7 +3700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -3694,7 +3711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3705,7 +3722,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3716,7 +3733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3727,7 +3744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3738,7 +3755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>129</v>
       </c>
@@ -3749,7 +3766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
@@ -3760,7 +3777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3771,7 +3788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3782,7 +3799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3793,7 +3810,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3804,7 +3821,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3815,7 +3832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3826,7 +3843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3837,7 +3854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3848,7 +3865,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3859,7 +3876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3870,7 +3887,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>141</v>
       </c>
@@ -3881,7 +3898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>142</v>
       </c>
@@ -3892,7 +3909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3903,7 +3920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3914,7 +3931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3925,7 +3942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3936,7 +3953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3947,7 +3964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3958,7 +3975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3969,7 +3986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3980,7 +3997,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -3991,7 +4008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -4002,7 +4019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -4013,7 +4030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4CFB61-63AF-41B2-8416-56CC21A419FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -680,7 +681,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1112,7 +1113,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>7/3</c:v>
+                  <c:v>7-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>03-28-2022</c:v>
@@ -2021,19 +2022,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2113,14 +2114,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2128,20 +2129,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="42.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2492,21 +2493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2686,21 +2687,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2794,23 +2795,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3043,7 +3044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
@@ -3066,16 +3067,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3294,7 +3295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>190</v>
       </c>
@@ -3323,17 +3324,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3376,13 +3377,22 @@
         <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2">
         <v>60</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>120</v>
+      </c>
+      <c r="I2" s="13">
+        <v>43197</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3396,13 +3406,22 @@
         <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="F3">
         <v>30</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3" s="13">
+        <v>43197</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3510,16 +3529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3555,17 +3574,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3579,7 +3598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>113</v>
       </c>
@@ -3590,7 +3609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3601,7 +3620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
@@ -3612,7 +3631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
@@ -3623,7 +3642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>117</v>
       </c>
@@ -3634,7 +3653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3645,7 +3664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
@@ -3656,7 +3675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>120</v>
       </c>
@@ -3667,7 +3686,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
@@ -3678,7 +3697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
@@ -3689,7 +3708,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>123</v>
       </c>
@@ -3700,7 +3719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -3711,7 +3730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3722,7 +3741,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3733,7 +3752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3744,7 +3763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3755,7 +3774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>129</v>
       </c>
@@ -3766,7 +3785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
@@ -3777,7 +3796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3788,7 +3807,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3799,7 +3818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3810,7 +3829,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3821,7 +3840,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3832,7 +3851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3843,7 +3862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3854,7 +3873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3865,7 +3884,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3876,7 +3895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3887,7 +3906,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>141</v>
       </c>
@@ -3898,7 +3917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>142</v>
       </c>
@@ -3909,7 +3928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3920,7 +3939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3931,7 +3950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3942,7 +3961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3953,7 +3972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -3964,7 +3983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3975,7 +3994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -3986,7 +4005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3997,7 +4016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -4008,7 +4027,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -4019,7 +4038,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -4030,7 +4049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SSW-555\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4CFB61-63AF-41B2-8416-56CC21A419FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="200">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -655,9 +654,6 @@
   </si>
   <si>
     <t>Less than 150 years old</t>
-  </si>
-  <si>
-    <t>Coding</t>
   </si>
   <si>
     <t>SK</t>
@@ -681,7 +677,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1135,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2065,7 +2064,7 @@
         <v>182</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>186</v>
@@ -2114,14 +2113,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2129,11 +2128,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2280,7 +2279,7 @@
         <v>155</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>189</v>
@@ -2297,7 +2296,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>189</v>
@@ -2314,10 +2313,10 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2331,10 +2330,10 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2348,7 +2347,7 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" t="s">
         <v>189</v>
@@ -2365,7 +2364,7 @@
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
         <v>189</v>
@@ -2382,10 +2381,10 @@
         <v>77</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2399,10 +2398,10 @@
         <v>78</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2422,10 +2421,10 @@
         <v>81</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2439,10 +2438,10 @@
         <v>87</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2462,10 +2461,10 @@
         <v>97</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2479,10 +2478,10 @@
         <v>98</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
@@ -2687,11 +2686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2755,7 +2754,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -2775,9 +2774,21 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="9" t="e">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>134</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1999.813432835821</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2795,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -3067,7 +3078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -3116,7 +3127,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>189</v>
@@ -3145,7 +3156,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>189</v>
@@ -3174,7 +3185,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>189</v>
@@ -3203,7 +3214,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>189</v>
@@ -3232,7 +3243,7 @@
         <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
         <v>189</v>
@@ -3261,7 +3272,7 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
         <v>189</v>
@@ -3313,7 +3324,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3324,11 +3335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3374,7 +3385,7 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
         <v>189</v>
@@ -3403,7 +3414,7 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
         <v>189</v>
@@ -3432,10 +3443,10 @@
         <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3461,10 +3472,10 @@
         <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -3490,16 +3501,25 @@
         <v>97</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E8" s="18">
         <v>50</v>
       </c>
       <c r="F8" s="18">
         <v>60</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" s="13">
+        <v>43197</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3510,16 +3530,25 @@
         <v>98</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E9" s="18">
         <v>20</v>
       </c>
       <c r="F9" s="18">
         <v>30</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" s="13">
+        <v>43197</v>
       </c>
     </row>
   </sheetData>
@@ -3529,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -3574,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -3851,7 +3880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\SSW-555\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="201">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>skapuria@stevens.edu</t>
+  </si>
+  <si>
+    <t>Coding</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1112,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>7-3</c:v>
+                  <c:v>7/3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>03-28-2022</c:v>
@@ -2028,12 +2031,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2131,17 +2134,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2499,14 +2502,14 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2693,14 +2696,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2813,16 +2816,16 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3055,7 +3058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
@@ -3085,9 +3088,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3306,7 +3309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>190</v>
       </c>
@@ -3338,14 +3341,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3559,15 +3562,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3594,6 +3600,46 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3606,14 +3652,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3627,7 +3673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>113</v>
       </c>
@@ -3638,7 +3684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3649,7 +3695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
@@ -3660,7 +3706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
@@ -3671,7 +3717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>117</v>
       </c>
@@ -3682,7 +3728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3693,7 +3739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
@@ -3704,7 +3750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>120</v>
       </c>
@@ -3715,7 +3761,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
@@ -3726,7 +3772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
@@ -3737,7 +3783,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>123</v>
       </c>
@@ -3748,7 +3794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
@@ -3759,7 +3805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3770,7 +3816,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3781,7 +3827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3792,7 +3838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3803,7 +3849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>129</v>
       </c>
@@ -3814,7 +3860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
@@ -3825,7 +3871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3836,7 +3882,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3847,7 +3893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3858,7 +3904,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3869,7 +3915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3880,7 +3926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3891,7 +3937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3902,7 +3948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3913,7 +3959,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3924,7 +3970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3935,7 +3981,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>141</v>
       </c>
@@ -3946,7 +3992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>142</v>
       </c>
@@ -3957,7 +4003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -3968,7 +4014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -3979,7 +4025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -3990,7 +4036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -4001,7 +4047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -4012,7 +4058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -4023,7 +4069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -4034,7 +4080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -4045,7 +4091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -4056,7 +4102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -4067,7 +4113,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -4078,7 +4124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -3565,7 +3565,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3573,7 +3573,7 @@
     <col min="2" max="2" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3613,13 +3613,22 @@
         <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
         <v>30</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="13">
+        <v>43209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B25F12-5827-48AA-9334-2D1B5D48F8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="201">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -680,7 +681,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -728,7 +729,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +751,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +838,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -862,8 +869,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1112,7 +1120,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>7/3</c:v>
+                  <c:v>7-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>03-28-2022</c:v>
@@ -2024,19 +2032,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2116,14 +2124,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2131,20 +2139,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="42.75" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="42.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2495,21 +2503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2689,21 +2697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2809,23 +2817,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3058,7 +3066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
@@ -3081,16 +3089,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3309,7 +3317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>190</v>
       </c>
@@ -3338,17 +3346,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3561,16 +3569,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3649,6 +3657,110 @@
       </c>
       <c r="F3">
         <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" s="13">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="22">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="13">
+        <v>43210</v>
       </c>
     </row>
   </sheetData>
@@ -3658,17 +3770,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3682,8 +3794,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B2" t="s">
@@ -3693,7 +3805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3704,7 +3816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
@@ -3715,8 +3827,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B5" t="s">
@@ -3726,8 +3838,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B6" t="s">
@@ -3737,7 +3849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3748,7 +3860,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
@@ -3759,8 +3871,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B9" t="s">
@@ -3770,7 +3882,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
@@ -3781,7 +3893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
@@ -3792,8 +3904,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>123</v>
       </c>
       <c r="B12" t="s">
@@ -3803,8 +3915,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>124</v>
       </c>
       <c r="B13" t="s">
@@ -3814,7 +3926,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3825,7 +3937,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3836,7 +3948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3847,7 +3959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3858,7 +3970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>129</v>
       </c>
@@ -3869,7 +3981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
@@ -3880,7 +3992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -3891,7 +4003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -3902,7 +4014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -3913,7 +4025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -3924,7 +4036,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -3935,7 +4047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3946,7 +4058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3957,7 +4069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -3968,7 +4080,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -3979,7 +4091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3990,8 +4102,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>141</v>
       </c>
       <c r="B30" t="s">
@@ -4001,8 +4113,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B31" t="s">
@@ -4012,7 +4124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -4023,7 +4135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -4034,7 +4146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -4045,7 +4157,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -4056,8 +4168,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B36" t="s">
@@ -4067,8 +4179,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>148</v>
       </c>
       <c r="B37" t="s">
@@ -4078,7 +4190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -4089,7 +4201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -4100,7 +4212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -4111,7 +4223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -4122,7 +4234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -4133,7 +4245,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>

--- a/TeamANSReport.xlsx
+++ b/TeamANSReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stevens\Current Sem\Agile\Project\SSW-555-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B25F12-5827-48AA-9334-2D1B5D48F8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="549" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" tabRatio="549" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="200">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -673,15 +672,12 @@
   </si>
   <si>
     <t>skapuria@stevens.edu</t>
-  </si>
-  <si>
-    <t>Coding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1120,7 +1116,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>7-3</c:v>
+                  <c:v>7/3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>03-28-2022</c:v>
@@ -2032,19 +2028,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2124,14 +2120,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId4"/>
@@ -2139,20 +2135,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2503,21 +2499,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2697,21 +2693,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2817,23 +2813,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3066,7 +3062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
@@ -3089,16 +3085,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3317,7 +3313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>190</v>
       </c>
@@ -3346,17 +3342,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3569,16 +3565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3641,22 +3637,31 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="13">
+        <v>43210</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3770,17 +3775,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3794,7 +3799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>113</v>
       </c>
@@ -3805,7 +3810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3816,7 +3821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
@@ -3827,7 +3832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>116</v>
       </c>
@@ -3838,7 +3843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>117</v>
       </c>
@@ -3849,7 +3854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
@@ -3860,7 +3865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
@@ -3871,7 +3876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>120</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
@@ -3893,7 +3898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
@@ -3904,7 +3909,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>123</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>124</v>
       </c>
@@ -3926,7 +3931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3937,7 +3942,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3959,7 +3964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3970,7 +3975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>129</v>
       </c>
@@ -3981,7 +3986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
@@ -3992,7 +3997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -4014,7 +4019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -4025,7 +4030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -4047,7 +4052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -4058,7 +4063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -4069,7 +4074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -4080,7 +4085,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -4091,7 +4096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -4102,7 +4107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>141</v>
       </c>
@@ -4113,7 +4118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>142</v>
       </c>
@@ -4124,7 +4129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -4146,7 +4151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -4157,7 +4162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -4168,7 +4173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>147</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>148</v>
       </c>
@@ -4190,7 +4195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -4201,7 +4206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -4212,7 +4217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -4223,7 +4228,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -4245,7 +4250,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>154</v>
       </c>
